--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8151723088037444</v>
+        <v>0.8142413394034955</v>
       </c>
       <c r="E2">
-        <v>0.8151723088037444</v>
+        <v>0.8142413394034955</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03956730571238313</v>
+        <v>0.03929915539604146</v>
       </c>
       <c r="E3">
-        <v>0.03956730571238313</v>
+        <v>0.03929915539604146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0437733399939215</v>
+        <v>0.04385414019569965</v>
       </c>
       <c r="E4">
-        <v>0.0437733399939215</v>
+        <v>0.04385414019569965</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.002082370279376388</v>
+        <v>0.00209750943385401</v>
       </c>
       <c r="E5">
-        <v>0.002082370279376388</v>
+        <v>0.00209750943385401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9461602573519485</v>
+        <v>0.9465492369353946</v>
       </c>
       <c r="E6">
-        <v>0.9461602573519485</v>
+        <v>0.9465492369353946</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9929095064852944</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.007090493514705587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9981596381037379</v>
+        <v>0.9955583887171143</v>
       </c>
       <c r="E8">
-        <v>0.001840361896262133</v>
+        <v>0.004441611282885671</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9921285632476079</v>
+        <v>0.9999999187017909</v>
       </c>
       <c r="E9">
-        <v>0.007871436752392102</v>
+        <v>8.129820905367069E-08</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9971111855906112</v>
+        <v>0.02983007302867908</v>
       </c>
       <c r="E10">
-        <v>0.002888814409388818</v>
+        <v>0.9701699269713209</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9931243246265169</v>
+        <v>0.9472138594349139</v>
       </c>
       <c r="E11">
-        <v>0.006875675373483103</v>
+        <v>0.05278614056508613</v>
       </c>
       <c r="F11">
-        <v>0.4723943769931793</v>
+        <v>0.8270258903503418</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8690252463719642</v>
+        <v>0.8680562665205624</v>
       </c>
       <c r="E12">
-        <v>0.8690252463719642</v>
+        <v>0.8680562665205624</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.005968846463587791</v>
+        <v>0.005964977039969782</v>
       </c>
       <c r="E13">
-        <v>0.005968846463587791</v>
+        <v>0.005964977039969782</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.004488743024176657</v>
+        <v>0.0044990834001208</v>
       </c>
       <c r="E14">
-        <v>0.004488743024176657</v>
+        <v>0.0044990834001208</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>9.285910223027238E-05</v>
+        <v>9.278267216329316E-05</v>
       </c>
       <c r="E15">
-        <v>9.285910223027238E-05</v>
+        <v>9.278267216329316E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9647391112216029</v>
+        <v>0.964949302692886</v>
       </c>
       <c r="E16">
-        <v>0.9647391112216029</v>
+        <v>0.964949302692886</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9993895909808836</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.0006104090191163536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9987693580472584</v>
+        <v>0.9868002054308599</v>
       </c>
       <c r="E18">
-        <v>0.001230641952741585</v>
+        <v>0.01319979456914011</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9996138864564724</v>
+        <v>2.938384125245676E-07</v>
       </c>
       <c r="E19">
-        <v>0.0003861135435275775</v>
+        <v>0.9999997061615875</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9971763744598126</v>
+        <v>0.01457421051713957</v>
       </c>
       <c r="E20">
-        <v>0.002823625540187447</v>
+        <v>0.9854257894828604</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9993239762641981</v>
+        <v>0.9718275914417014</v>
       </c>
       <c r="E21">
-        <v>0.0006760237358018895</v>
+        <v>0.02817240855829861</v>
       </c>
       <c r="F21">
-        <v>0.5394041538238525</v>
+        <v>2.469752550125122</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
